--- a/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/FinalD4JResults/All-297-16-4/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F64E73-979B-3B40-8568-8E0BC8506521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC3E9A-E74E-494F-A2AA-2E9F13C8EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Bug ID</t>
   </si>
@@ -50,21 +50,6 @@
     <t>%New InPreSS Reduction</t>
   </si>
   <si>
-    <t>AssertionFailedError</t>
-  </si>
-  <si>
-    <t>IllegalArgumentException</t>
-  </si>
-  <si>
-    <t>ComparisonFailure</t>
-  </si>
-  <si>
-    <t>UnsupportedOperationException</t>
-  </si>
-  <si>
-    <t>IllegalFieldValueException</t>
-  </si>
-  <si>
     <t>%Old Reduction</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
   </si>
   <si>
     <t>#New Chg</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t># New mathched block</t>
@@ -165,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,12 +158,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -213,11 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,18 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -572,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -583,17 +558,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
+      <c r="N1" t="s">
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -607,7 +579,7 @@
         <v>99.867321215337597</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -625,7 +597,7 @@
         <v>99.793131981795597</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -633,18 +605,15 @@
       <c r="M2" s="1">
         <v>80</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="N2" s="2">
         <v>1.29833333333333E-2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="O2" s="2">
         <v>1.58333333333333E-3</v>
       </c>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -658,7 +627,7 @@
         <v>99.993710691823907</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -676,7 +645,7 @@
         <v>99.993865218858303</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -684,18 +653,15 @@
       <c r="M3" s="1">
         <v>50</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="N3" s="2">
         <v>0.16061666666666599</v>
       </c>
-      <c r="P3" s="3">
+      <c r="O3" s="2">
         <v>6.8533333333333293E-2</v>
       </c>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -709,7 +675,7 @@
         <v>99.933005806163393</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -727,7 +693,7 @@
         <v>99.598488427019305</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -735,18 +701,15 @@
       <c r="M4">
         <v>76.470588235294102</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="N4" s="2">
         <v>0.1183</v>
       </c>
-      <c r="P4" s="3">
+      <c r="O4" s="2">
         <v>7.6633333333333303E-2</v>
       </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -760,7 +723,7 @@
         <v>99.816429554841605</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
@@ -778,7 +741,7 @@
         <v>99.897975200125501</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -786,18 +749,15 @@
       <c r="M5" s="1">
         <v>92.307692307692307</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N5" s="2">
         <v>0.59303333333333297</v>
       </c>
-      <c r="P5" s="3">
+      <c r="O5" s="2">
         <v>0.2296</v>
       </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -811,7 +771,7 @@
         <v>53.8610787737679</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>118</v>
@@ -829,7 +789,7 @@
         <v>65.870786516853897</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1">
         <v>106</v>
@@ -837,18 +797,15 @@
       <c r="M6" s="1">
         <v>89.094650205761297</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N6" s="2">
         <v>1.66666666666666E-5</v>
       </c>
-      <c r="P6" s="3">
+      <c r="O6" s="2">
         <v>1.66666666666666E-5</v>
       </c>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -862,7 +819,7 @@
         <v>98.250957187608705</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1">
         <v>46</v>
@@ -880,7 +837,7 @@
         <v>98.1052061716141</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1">
         <v>42</v>
@@ -888,18 +845,15 @@
       <c r="M7" s="1">
         <v>80</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="N7" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="O7" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -913,7 +867,7 @@
         <v>99.985806878932607</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -931,7 +885,7 @@
         <v>99.792736351217599</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
@@ -939,18 +893,15 @@
       <c r="M8" s="1">
         <v>86.363636363636303</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="N8" s="2">
         <v>1.8666666666666599E-3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="O8" s="2">
         <v>3.3333333333333301E-5</v>
       </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -964,7 +915,7 @@
         <v>98.550463671558404</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>125</v>
@@ -982,7 +933,7 @@
         <v>98.508061818425006</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1">
         <v>120</v>
@@ -990,18 +941,15 @@
       <c r="M9" s="1">
         <v>73.094170403587398</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="2">
         <v>2.38333333333333E-2</v>
       </c>
-      <c r="P9" s="3">
+      <c r="O9" s="2">
         <v>6.6666666666666602E-5</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -1015,7 +963,7 @@
         <v>97.439148073022295</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -1033,7 +981,7 @@
         <v>85.778294059077297</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1">
         <v>14</v>
@@ -1041,18 +989,15 @@
       <c r="M10" s="1">
         <v>98.366394399066493</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="2">
         <v>1.55333333333333E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="O10" s="2">
         <v>5.5166666666666602E-3</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1066,7 +1011,7 @@
         <v>99.052940619376798</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1084,7 +1029,7 @@
         <v>99.060810169813095</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1092,18 +1037,15 @@
       <c r="M11" s="1">
         <v>98.989898989898904</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="2">
         <v>0.1366</v>
       </c>
-      <c r="P11" s="3">
+      <c r="O11" s="2">
         <v>1.81666666666666E-3</v>
       </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1117,7 +1059,7 @@
         <v>99.958532034003696</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -1135,7 +1077,7 @@
         <v>96.735477676428204</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1143,18 +1085,15 @@
       <c r="M12" s="1">
         <v>99.509803921568604</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N12" s="2">
         <v>1.2666666666666601E-3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="O12" s="2">
         <v>1.66666666666666E-5</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -1168,7 +1107,7 @@
         <v>96.470588235294102</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1186,7 +1125,7 @@
         <v>95.384615384615302</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1194,18 +1133,15 @@
       <c r="M13" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="N13" s="2">
         <v>0.119866666666666</v>
       </c>
-      <c r="P13" s="3">
+      <c r="O13" s="2">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -1219,7 +1155,7 @@
         <v>82.241419565724897</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
         <v>211</v>
@@ -1237,7 +1173,7 @@
         <v>67.780577772908202</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L14" s="1">
         <v>272</v>
@@ -1245,18 +1181,15 @@
       <c r="M14" s="1">
         <v>96.916798911811298</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="2">
         <v>9.3500000000000007E-3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="O14" s="2">
         <v>6.6666666666666602E-5</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1270,7 +1203,7 @@
         <v>97.300424219051294</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1">
         <v>57</v>
@@ -1288,7 +1221,7 @@
         <v>93.638882475178903</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1">
         <v>29</v>
@@ -1296,18 +1229,15 @@
       <c r="M15" s="1">
         <v>94.736842105263094</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="2">
         <v>9.1166666666666604E-2</v>
       </c>
-      <c r="P15" s="3">
+      <c r="O15" s="2">
         <v>2.5333333333333301E-2</v>
       </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1321,7 +1251,7 @@
         <v>99.874108266890403</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1339,7 +1269,7 @@
         <v>99.867256637168097</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1347,18 +1277,15 @@
       <c r="M16" s="1">
         <v>88.8888888888888</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="N16" s="2">
         <v>1.20833333333333E-2</v>
       </c>
-      <c r="P16" s="3">
+      <c r="O16" s="2">
         <v>4.3499999999999997E-3</v>
       </c>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -1372,7 +1299,7 @@
         <v>99.965748732703105</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1390,7 +1317,7 @@
         <v>99.967389532039704</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1398,18 +1325,15 @@
       <c r="M17" s="1">
         <v>75</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="2">
         <v>0.40960000000000002</v>
       </c>
-      <c r="P17" s="3">
+      <c r="O17" s="2">
         <v>9.0500000000000008E-3</v>
       </c>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1423,7 +1347,7 @@
         <v>91.742325983571106</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
         <v>8</v>
@@ -1441,7 +1365,7 @@
         <v>95.648256599693596</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L18" s="1">
         <v>6</v>
@@ -1449,18 +1373,15 @@
       <c r="M18" s="1">
         <v>98.7577639751552</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="N18" s="2">
         <v>9.1833333333333298E-3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="O18" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -1474,7 +1395,7 @@
         <v>96.782728331040303</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1">
         <v>29</v>
@@ -1492,7 +1413,7 @@
         <v>93.191664947390095</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1">
         <v>18</v>
@@ -1500,18 +1421,15 @@
       <c r="M19" s="1">
         <v>97.272727272727195</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="N19" s="2">
         <v>1.7555000000000001</v>
       </c>
-      <c r="P19" s="3">
+      <c r="O19" s="2">
         <v>0.65780000000000005</v>
       </c>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -1525,7 +1443,7 @@
         <v>99.377061194576697</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -1543,7 +1461,7 @@
         <v>99.468226535495802</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L20" s="1">
         <v>4</v>
@@ -1551,18 +1469,15 @@
       <c r="M20" s="1">
         <v>80</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="2">
         <v>3.2066666666666598E-2</v>
       </c>
-      <c r="P20" s="3">
+      <c r="O20" s="2">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -1576,7 +1491,7 @@
         <v>92.736561528209606</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1">
         <v>23</v>
@@ -1594,7 +1509,7 @@
         <v>99.131963520492206</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -1602,18 +1517,15 @@
       <c r="M21" s="1">
         <v>93.670886075949298</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="N21" s="2">
         <v>0.38463333333333299</v>
       </c>
-      <c r="P21" s="3">
+      <c r="O21" s="2">
         <v>6.6033333333333305E-2</v>
       </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>26</v>
       </c>
@@ -1627,7 +1539,7 @@
         <v>99.406528189910901</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
         <v>8</v>
@@ -1645,7 +1557,7 @@
         <v>99.356881369347903</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1">
         <v>8</v>
@@ -1653,18 +1565,15 @@
       <c r="M22" s="1">
         <v>87.692307692307693</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="2">
         <v>0.11371666666666599</v>
       </c>
-      <c r="P22" s="3">
+      <c r="O22" s="2">
         <v>3.33833333333333E-2</v>
       </c>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>27</v>
       </c>
@@ -1678,7 +1587,7 @@
         <v>92.080795126643096</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
@@ -1696,7 +1605,7 @@
         <v>95.056964351341406</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L23" s="1">
         <v>13</v>
@@ -1704,18 +1613,15 @@
       <c r="M23" s="1">
         <v>95.167286245353097</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="N23" s="2">
         <v>8.57333333333333E-2</v>
       </c>
-      <c r="P23" s="3">
+      <c r="O23" s="2">
         <v>2.21166666666666E-2</v>
       </c>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1728,29 +1634,28 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M23">
@@ -1764,65 +1669,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC6EE8-6398-8D41-9FCF-F1BB1EACEE23}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">

--- a/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABC3E9A-E74E-494F-A2AA-2E9F13C8EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC0610B-0068-5642-B693-CC5ABA807B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16600" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -63,33 +63,6 @@
   </si>
   <si>
     <t># New unmathched block</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>DSlice Time (Min)</t>
@@ -189,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -550,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -559,10 +533,10 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -578,8 +552,8 @@
       <c r="D2" s="1">
         <v>99.867321215337597</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="3">
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -596,8 +570,8 @@
       <c r="J2" s="1">
         <v>99.793131981795597</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="K2" s="3">
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -626,8 +600,8 @@
       <c r="D3" s="1">
         <v>99.993710691823907</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3" s="3">
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -644,8 +618,8 @@
       <c r="J3" s="1">
         <v>99.993865218858303</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="K3" s="3">
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -674,8 +648,8 @@
       <c r="D4">
         <v>99.933005806163393</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" s="3">
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -692,8 +666,8 @@
       <c r="J4">
         <v>99.598488427019305</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="K4" s="3">
+        <v>0</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -722,8 +696,8 @@
       <c r="D5" s="1">
         <v>99.816429554841605</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
+      <c r="E5" s="3">
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
@@ -740,8 +714,8 @@
       <c r="J5" s="1">
         <v>99.897975200125501</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
+      <c r="K5" s="3">
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -770,8 +744,8 @@
       <c r="D6" s="1">
         <v>53.8610787737679</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>118</v>
@@ -788,8 +762,8 @@
       <c r="J6" s="1">
         <v>65.870786516853897</v>
       </c>
-      <c r="K6" t="s">
-        <v>17</v>
+      <c r="K6" s="3">
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>106</v>
@@ -818,8 +792,8 @@
       <c r="D7" s="1">
         <v>98.250957187608705</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>46</v>
@@ -836,8 +810,8 @@
       <c r="J7" s="1">
         <v>98.1052061716141</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="K7" s="3">
+        <v>4</v>
       </c>
       <c r="L7" s="1">
         <v>42</v>
@@ -866,8 +840,8 @@
       <c r="D8" s="1">
         <v>99.985806878932607</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -884,8 +858,8 @@
       <c r="J8" s="1">
         <v>99.792736351217599</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
@@ -914,8 +888,8 @@
       <c r="D9" s="1">
         <v>98.550463671558404</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
+      <c r="E9" s="3">
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>125</v>
@@ -932,8 +906,8 @@
       <c r="J9" s="1">
         <v>98.508061818425006</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
+      <c r="K9" s="3">
+        <v>2</v>
       </c>
       <c r="L9" s="1">
         <v>120</v>
@@ -962,8 +936,8 @@
       <c r="D10" s="1">
         <v>97.439148073022295</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -980,8 +954,8 @@
       <c r="J10" s="1">
         <v>85.778294059077297</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>14</v>
@@ -1010,8 +984,8 @@
       <c r="D11" s="1">
         <v>99.052940619376798</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
+      <c r="E11" s="3">
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1028,8 +1002,8 @@
       <c r="J11" s="1">
         <v>99.060810169813095</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
+      <c r="K11" s="3">
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1058,8 +1032,8 @@
       <c r="D12" s="1">
         <v>99.958532034003696</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -1076,8 +1050,8 @@
       <c r="J12" s="1">
         <v>96.735477676428204</v>
       </c>
-      <c r="K12" t="s">
-        <v>18</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1106,8 +1080,8 @@
       <c r="D13" s="1">
         <v>96.470588235294102</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1124,8 +1098,8 @@
       <c r="J13" s="1">
         <v>95.384615384615302</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
+      <c r="K13" s="3">
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1154,8 +1128,8 @@
       <c r="D14" s="1">
         <v>82.241419565724897</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
+      <c r="E14" s="3">
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>211</v>
@@ -1172,8 +1146,8 @@
       <c r="J14" s="1">
         <v>67.780577772908202</v>
       </c>
-      <c r="K14" t="s">
-        <v>18</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>272</v>
@@ -1202,8 +1176,8 @@
       <c r="D15" s="1">
         <v>97.300424219051294</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
+      <c r="E15" s="3">
+        <v>13</v>
       </c>
       <c r="F15" s="1">
         <v>57</v>
@@ -1220,8 +1194,8 @@
       <c r="J15" s="1">
         <v>93.638882475178903</v>
       </c>
-      <c r="K15" t="s">
-        <v>22</v>
+      <c r="K15" s="3">
+        <v>17</v>
       </c>
       <c r="L15" s="1">
         <v>29</v>
@@ -1250,8 +1224,8 @@
       <c r="D16" s="1">
         <v>99.874108266890403</v>
       </c>
-      <c r="E16" t="s">
-        <v>18</v>
+      <c r="E16" s="3">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1268,8 +1242,8 @@
       <c r="J16" s="1">
         <v>99.867256637168097</v>
       </c>
-      <c r="K16" t="s">
-        <v>18</v>
+      <c r="K16" s="3">
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1298,8 +1272,8 @@
       <c r="D17" s="1">
         <v>99.965748732703105</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
+      <c r="E17" s="3">
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1316,8 +1290,8 @@
       <c r="J17" s="1">
         <v>99.967389532039704</v>
       </c>
-      <c r="K17" t="s">
-        <v>20</v>
+      <c r="K17" s="3">
+        <v>2</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1346,8 +1320,8 @@
       <c r="D18" s="1">
         <v>91.742325983571106</v>
       </c>
-      <c r="E18" t="s">
-        <v>18</v>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>8</v>
@@ -1364,8 +1338,8 @@
       <c r="J18" s="1">
         <v>95.648256599693596</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>6</v>
@@ -1394,8 +1368,8 @@
       <c r="D19" s="1">
         <v>96.782728331040303</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
+      <c r="E19" s="3">
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <v>29</v>
@@ -1412,8 +1386,8 @@
       <c r="J19" s="1">
         <v>93.191664947390095</v>
       </c>
-      <c r="K19" t="s">
-        <v>16</v>
+      <c r="K19" s="3">
+        <v>4</v>
       </c>
       <c r="L19" s="1">
         <v>18</v>
@@ -1442,8 +1416,8 @@
       <c r="D20" s="1">
         <v>99.377061194576697</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -1460,8 +1434,8 @@
       <c r="J20" s="1">
         <v>99.468226535495802</v>
       </c>
-      <c r="K20" t="s">
-        <v>18</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>4</v>
@@ -1490,8 +1464,8 @@
       <c r="D21" s="1">
         <v>92.736561528209606</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
+      <c r="E21" s="3">
+        <v>5</v>
       </c>
       <c r="F21" s="1">
         <v>23</v>
@@ -1508,8 +1482,8 @@
       <c r="J21" s="1">
         <v>99.131963520492206</v>
       </c>
-      <c r="K21" t="s">
-        <v>17</v>
+      <c r="K21" s="3">
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -1538,8 +1512,8 @@
       <c r="D22" s="1">
         <v>99.406528189910901</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
+      <c r="E22" s="3">
+        <v>4</v>
       </c>
       <c r="F22" s="1">
         <v>8</v>
@@ -1556,8 +1530,8 @@
       <c r="J22" s="1">
         <v>99.356881369347903</v>
       </c>
-      <c r="K22" t="s">
-        <v>18</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <v>8</v>
@@ -1586,8 +1560,8 @@
       <c r="D23" s="1">
         <v>92.080795126643096</v>
       </c>
-      <c r="E23" t="s">
-        <v>20</v>
+      <c r="E23" s="3">
+        <v>2</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
@@ -1604,8 +1578,8 @@
       <c r="J23" s="1">
         <v>95.056964351341406</v>
       </c>
-      <c r="K23" t="s">
-        <v>20</v>
+      <c r="K23" s="3">
+        <v>2</v>
       </c>
       <c r="L23" s="1">
         <v>13</v>
@@ -1683,49 +1657,49 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2"/>
     </row>

--- a/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Time.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC0610B-0068-5642-B693-CC5ABA807B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD064A2A-DD2F-1A4C-B8F7-E8E4D7B4577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16600" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
-    <sheet name="RQ2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bug ID</t>
   </si>
@@ -56,64 +55,16 @@
     <t>%New Reduction</t>
   </si>
   <si>
-    <t># Old mathched block</t>
-  </si>
-  <si>
-    <t># Old unmathched block</t>
-  </si>
-  <si>
-    <t># New unmathched block</t>
-  </si>
-  <si>
     <t>DSlice Time (Min)</t>
   </si>
   <si>
     <t>InPreSS Time (Min)</t>
   </si>
   <si>
-    <t>Old Match Avg.</t>
-  </si>
-  <si>
-    <t>Old Match Max</t>
-  </si>
-  <si>
-    <t>%Old Match Reduction</t>
-  </si>
-  <si>
-    <t>Old UnMatch Avg.</t>
-  </si>
-  <si>
-    <t>Old UnMatch Max</t>
-  </si>
-  <si>
-    <t>%Old UnMatch Reduction</t>
-  </si>
-  <si>
-    <t>New Match Avg.</t>
-  </si>
-  <si>
-    <t>New Match Max</t>
-  </si>
-  <si>
-    <t>%New Match Reduction</t>
-  </si>
-  <si>
-    <t>New UnMatch Avg.</t>
-  </si>
-  <si>
-    <t>New UnMatch Max</t>
-  </si>
-  <si>
-    <t>%New UnMatch Reduction</t>
-  </si>
-  <si>
     <t>#Old Chg</t>
   </si>
   <si>
     <t>#New Chg</t>
-  </si>
-  <si>
-    <t># New mathched block</t>
   </si>
 </sst>
 </file>
@@ -162,11 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +434,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:O23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -524,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -533,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -552,7 +502,7 @@
       <c r="D2" s="1">
         <v>99.867321215337597</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" s="1">
@@ -570,7 +520,7 @@
       <c r="J2" s="1">
         <v>99.793131981795597</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" s="1">
@@ -600,7 +550,7 @@
       <c r="D3" s="1">
         <v>99.993710691823907</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>7</v>
       </c>
       <c r="F3" s="1">
@@ -618,7 +568,7 @@
       <c r="J3" s="1">
         <v>99.993865218858303</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -648,7 +598,7 @@
       <c r="D4">
         <v>99.933005806163393</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
@@ -666,7 +616,7 @@
       <c r="J4">
         <v>99.598488427019305</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
@@ -696,7 +646,7 @@
       <c r="D5" s="1">
         <v>99.816429554841605</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="1">
@@ -714,7 +664,7 @@
       <c r="J5" s="1">
         <v>99.897975200125501</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" s="1">
@@ -744,7 +694,7 @@
       <c r="D6" s="1">
         <v>53.8610787737679</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -762,7 +712,7 @@
       <c r="J6" s="1">
         <v>65.870786516853897</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="1">
@@ -792,7 +742,7 @@
       <c r="D7" s="1">
         <v>98.250957187608705</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -810,7 +760,7 @@
       <c r="J7" s="1">
         <v>98.1052061716141</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" s="1">
@@ -840,7 +790,7 @@
       <c r="D8" s="1">
         <v>99.985806878932607</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1">
@@ -858,7 +808,7 @@
       <c r="J8" s="1">
         <v>99.792736351217599</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" s="1">
@@ -888,7 +838,7 @@
       <c r="D9" s="1">
         <v>98.550463671558404</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" s="1">
@@ -906,7 +856,7 @@
       <c r="J9" s="1">
         <v>98.508061818425006</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" s="1">
@@ -936,7 +886,7 @@
       <c r="D10" s="1">
         <v>97.439148073022295</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1">
@@ -954,7 +904,7 @@
       <c r="J10" s="1">
         <v>85.778294059077297</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" s="1">
@@ -984,7 +934,7 @@
       <c r="D11" s="1">
         <v>99.052940619376798</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="1">
@@ -1002,7 +952,7 @@
       <c r="J11" s="1">
         <v>99.060810169813095</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" s="1">
@@ -1032,7 +982,7 @@
       <c r="D12" s="1">
         <v>99.958532034003696</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -1050,7 +1000,7 @@
       <c r="J12" s="1">
         <v>96.735477676428204</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="1">
@@ -1080,7 +1030,7 @@
       <c r="D13" s="1">
         <v>96.470588235294102</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="1">
@@ -1098,7 +1048,7 @@
       <c r="J13" s="1">
         <v>95.384615384615302</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="1">
@@ -1128,7 +1078,7 @@
       <c r="D14" s="1">
         <v>82.241419565724897</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" s="1">
@@ -1146,7 +1096,7 @@
       <c r="J14" s="1">
         <v>67.780577772908202</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -1176,7 +1126,7 @@
       <c r="D15" s="1">
         <v>97.300424219051294</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>13</v>
       </c>
       <c r="F15" s="1">
@@ -1194,7 +1144,7 @@
       <c r="J15" s="1">
         <v>93.638882475178903</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>17</v>
       </c>
       <c r="L15" s="1">
@@ -1224,7 +1174,7 @@
       <c r="D16" s="1">
         <v>99.874108266890403</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="1">
@@ -1242,7 +1192,7 @@
       <c r="J16" s="1">
         <v>99.867256637168097</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="1">
@@ -1272,7 +1222,7 @@
       <c r="D17" s="1">
         <v>99.965748732703105</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" s="1">
@@ -1290,7 +1240,7 @@
       <c r="J17" s="1">
         <v>99.967389532039704</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>2</v>
       </c>
       <c r="L17" s="1">
@@ -1320,7 +1270,7 @@
       <c r="D18" s="1">
         <v>91.742325983571106</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1338,7 +1288,7 @@
       <c r="J18" s="1">
         <v>95.648256599693596</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1368,7 +1318,7 @@
       <c r="D19" s="1">
         <v>96.782728331040303</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" s="1">
@@ -1386,7 +1336,7 @@
       <c r="J19" s="1">
         <v>93.191664947390095</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>4</v>
       </c>
       <c r="L19" s="1">
@@ -1416,7 +1366,7 @@
       <c r="D20" s="1">
         <v>99.377061194576697</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" s="1">
@@ -1434,7 +1384,7 @@
       <c r="J20" s="1">
         <v>99.468226535495802</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" s="1">
@@ -1464,7 +1414,7 @@
       <c r="D21" s="1">
         <v>92.736561528209606</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="1">
@@ -1482,7 +1432,7 @@
       <c r="J21" s="1">
         <v>99.131963520492206</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" s="1">
@@ -1512,7 +1462,7 @@
       <c r="D22" s="1">
         <v>99.406528189910901</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" s="1">
@@ -1530,7 +1480,7 @@
       <c r="J22" s="1">
         <v>99.356881369347903</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="1">
@@ -1560,7 +1510,7 @@
       <c r="D23" s="1">
         <v>92.080795126643096</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="1">
@@ -1578,7 +1528,7 @@
       <c r="J23" s="1">
         <v>95.056964351341406</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23">
         <v>2</v>
       </c>
       <c r="L23" s="1">
@@ -1637,1239 +1587,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC6EE8-6398-8D41-9FCF-F1BB1EACEE23}">
-  <dimension ref="A1:R23"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1.5</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>5.5</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>66.6666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>66.6666666666666</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>76.470588235294102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>8.4</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>75</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>7.6923076923076898</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>11.5</v>
-      </c>
-      <c r="P5">
-        <v>19</v>
-      </c>
-      <c r="Q5">
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>33.1875</v>
-      </c>
-      <c r="D6">
-        <v>109</v>
-      </c>
-      <c r="E6">
-        <v>38.0151387720773</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>43.2</v>
-      </c>
-      <c r="H6">
-        <v>492</v>
-      </c>
-      <c r="I6">
-        <v>52.228763666947003</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>35.6666666666666</v>
-      </c>
-      <c r="L6">
-        <v>109</v>
-      </c>
-      <c r="M6">
-        <v>46.502057613168702</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>43.6</v>
-      </c>
-      <c r="P6">
-        <v>336</v>
-      </c>
-      <c r="Q6">
-        <v>42.695473251028801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>16.2222222222222</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>59.701492537313399</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>20.398009950248699</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>18.5</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>56.190476190476097</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>7.375</v>
-      </c>
-      <c r="P7">
-        <v>42</v>
-      </c>
-      <c r="Q7">
-        <v>24.285714285714199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8">
-        <v>32</v>
-      </c>
-      <c r="Q8">
-        <v>86.363636363636303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>17.5833333333333</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>66.873706004140701</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>2.85</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>7.2463768115942004</v>
-      </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>17.625</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>72.421524663677104</v>
-      </c>
-      <c r="N9">
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <v>1.125</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>0.67264573991031396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>6.9306930693069297</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>21.25</v>
-      </c>
-      <c r="H10">
-        <v>73</v>
-      </c>
-      <c r="I10">
-        <v>80.198019801980195</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10">
-        <v>0.70011668611435196</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>424.5</v>
-      </c>
-      <c r="P10">
-        <v>763</v>
-      </c>
-      <c r="Q10">
-        <v>97.666277712952095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>99</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>99</v>
-      </c>
-      <c r="L11">
-        <v>99</v>
-      </c>
-      <c r="M11">
-        <v>98.989898989898904</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>204</v>
-      </c>
-      <c r="P12">
-        <v>204</v>
-      </c>
-      <c r="Q12">
-        <v>99.509803921568604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>66.6666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>159.23529411764699</v>
-      </c>
-      <c r="D14">
-        <v>522</v>
-      </c>
-      <c r="E14">
-        <v>66.736786747304706</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>365.33333333333297</v>
-      </c>
-      <c r="H14">
-        <v>1030</v>
-      </c>
-      <c r="I14">
-        <v>27.846437023402501</v>
-      </c>
-      <c r="J14">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>159.23529411764699</v>
-      </c>
-      <c r="L14">
-        <v>522</v>
-      </c>
-      <c r="M14">
-        <v>28.768986624348202</v>
-      </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <v>555.90909090908997</v>
-      </c>
-      <c r="P14">
-        <v>2495</v>
-      </c>
-      <c r="Q14">
-        <v>68.193153479936498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>5.2380952380952301</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>14.4166666666666</v>
-      </c>
-      <c r="H15">
-        <v>23</v>
-      </c>
-      <c r="I15">
-        <v>69.523809523809504</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>1.6333938294010799</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <v>133.25</v>
-      </c>
-      <c r="P15">
-        <v>231</v>
-      </c>
-      <c r="Q15">
-        <v>93.466424682395598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>88.8888888888888</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>88.8888888888888</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>75</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>0.41884816753926701</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>472</v>
-      </c>
-      <c r="H18">
-        <v>941</v>
-      </c>
-      <c r="I18">
-        <v>98.7434554973822</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <v>0.82815734989648004</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>237.5</v>
-      </c>
-      <c r="P18">
-        <v>467</v>
-      </c>
-      <c r="Q18">
-        <v>97.929606625258799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>89.5</v>
-      </c>
-      <c r="D19">
-        <v>148</v>
-      </c>
-      <c r="E19">
-        <v>55.592105263157897</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>29.25</v>
-      </c>
-      <c r="H19">
-        <v>97</v>
-      </c>
-      <c r="I19">
-        <v>34.868421052631497</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>89.5</v>
-      </c>
-      <c r="L19">
-        <v>149</v>
-      </c>
-      <c r="M19">
-        <v>25.606060606060598</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>479</v>
-      </c>
-      <c r="P19">
-        <v>479</v>
-      </c>
-      <c r="Q19">
-        <v>71.6666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>3.7151702786377698</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>309</v>
-      </c>
-      <c r="H20">
-        <v>309</v>
-      </c>
-      <c r="I20">
-        <v>95.046439628482901</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>7.5</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>60</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>5.1987767584097799</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>151.75</v>
-      </c>
-      <c r="H21">
-        <v>428</v>
-      </c>
-      <c r="I21">
-        <v>91.284403669724696</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>40</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>44.303797468354396</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>39</v>
-      </c>
-      <c r="P21">
-        <v>39</v>
-      </c>
-      <c r="Q21">
-        <v>49.367088607594901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>26.6666666666666</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>37</v>
-      </c>
-      <c r="H22">
-        <v>37</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>26.1538461538461</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>41</v>
-      </c>
-      <c r="P22">
-        <v>41</v>
-      </c>
-      <c r="Q22">
-        <v>61.538461538461497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>62</v>
-      </c>
-      <c r="D23">
-        <v>122</v>
-      </c>
-      <c r="E23">
-        <v>23.684210526315699</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>91.75</v>
-      </c>
-      <c r="H23">
-        <v>339</v>
-      </c>
-      <c r="I23">
-        <v>73.279352226720604</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>62</v>
-      </c>
-      <c r="L23">
-        <v>122</v>
-      </c>
-      <c r="M23">
-        <v>43.122676579925603</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>48.3333333333333</v>
-      </c>
-      <c r="P23">
-        <v>104</v>
-      </c>
-      <c r="Q23">
-        <v>52.044609665427501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>